--- a/tests/Gauges/tPage1_options.xlsx
+++ b/tests/Gauges/tPage1_options.xlsx
@@ -11,14 +11,14 @@
   </x:sheets>
   <x:definedNames>
     <x:definedName name="Orders">Sheet1!$A$12:$J$21</x:definedName>
-    <x:definedName name="Orders_tpl">Sheet1!$A$12:$J$13</x:definedName>
+    <x:definedName name="Orders_tpl">Sheet1!$A$12:$J$21</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <x:si>
     <x:t>Example of page options</x:t>
   </x:si>
@@ -54,6 +54,9 @@
   </x:si>
   <x:si>
     <x:t>US Virgin Islands</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00820</x:t>
   </x:si>
   <x:si>
     <x:t>Order No</x:t>
@@ -1232,8 +1235,8 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H9" s="64" t="s"/>
-      <x:c r="I9" s="63" t="n">
-        <x:v>820</x:v>
+      <x:c r="I9" s="63" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J9" s="64" t="s"/>
     </x:row>
@@ -1252,31 +1255,31 @@
     <x:row r="11" spans="1:10" customFormat="1" ht="22.5" customHeight="1">
       <x:c r="A11" s="45" t="s"/>
       <x:c r="B11" s="66" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C11" s="66" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D11" s="66" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E11" s="66" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F11" s="66" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G11" s="67" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="H11" s="67" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I11" s="67" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="J11" s="67" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10">
@@ -1293,7 +1296,7 @@
       <x:c r="E12" s="70" t="s"/>
       <x:c r="F12" s="70" t="s"/>
       <x:c r="G12" s="70" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H12" s="71" t="n">
         <x:v>4807</x:v>
@@ -1317,13 +1320,13 @@
         <x:v>32564</x:v>
       </x:c>
       <x:c r="E13" s="70" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F13" s="70" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="G13" s="70" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H13" s="71" t="n">
         <x:v>2150</x:v>
@@ -1349,7 +1352,7 @@
       <x:c r="E14" s="70" t="s"/>
       <x:c r="F14" s="70" t="s"/>
       <x:c r="G14" s="70" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="H14" s="71" t="n">
         <x:v>3596</x:v>
@@ -1375,7 +1378,7 @@
       <x:c r="E15" s="70" t="s"/>
       <x:c r="F15" s="70" t="s"/>
       <x:c r="G15" s="70" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H15" s="71" t="n">
         <x:v>9634</x:v>
@@ -1401,7 +1404,7 @@
       <x:c r="E16" s="70" t="s"/>
       <x:c r="F16" s="70" t="s"/>
       <x:c r="G16" s="70" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H16" s="71" t="n">
         <x:v>31219.95</x:v>
@@ -1427,7 +1430,7 @@
       <x:c r="E17" s="70" t="s"/>
       <x:c r="F17" s="70" t="s"/>
       <x:c r="G17" s="70" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H17" s="71" t="n">
         <x:v>3640</x:v>
@@ -1453,7 +1456,7 @@
       <x:c r="E18" s="70" t="s"/>
       <x:c r="F18" s="70" t="s"/>
       <x:c r="G18" s="70" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H18" s="71" t="n">
         <x:v>6935</x:v>
@@ -1479,7 +1482,7 @@
       <x:c r="E19" s="70" t="s"/>
       <x:c r="F19" s="70" t="s"/>
       <x:c r="G19" s="70" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="H19" s="71" t="n">
         <x:v>4317.75</x:v>
@@ -1505,7 +1508,7 @@
       <x:c r="E20" s="70" t="s"/>
       <x:c r="F20" s="70" t="s"/>
       <x:c r="G20" s="70" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="H20" s="71" t="n">
         <x:v>3065</x:v>
@@ -1527,7 +1530,7 @@
       <x:c r="G21" s="76" t="s"/>
       <x:c r="H21" s="76" t="s"/>
       <x:c r="I21" s="76" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J21" s="74" t="n">
         <x:v>69364.7</x:v>
@@ -1548,28 +1551,28 @@
     <x:row r="23" spans="1:10">
       <x:c r="A23" s="45" t="s"/>
       <x:c r="B23" s="50" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E23" s="50" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:10">
       <x:c r="A24" s="45" t="s"/>
       <x:c r="B24" s="73" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C24" s="57" t="s"/>
       <x:c r="D24" s="57" t="s"/>
       <x:c r="E24" s="73" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F24" s="72" t="s"/>
       <x:c r="G24" s="45" t="s"/>
       <x:c r="J24" s="45" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:sheetProtection password="D0FF" sheet="1"/>
+  <x:sheetProtection password="C032" sheet="1"/>
   <x:phoneticPr fontId="0" type="noConversion"/>
   <x:conditionalFormatting sqref="E12:G20">
     <x:cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
